--- a/data/trans_dic/IP16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A07-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,13</t>
+          <t>0,0; 16,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,34</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>0,0; 4,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,39</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,8</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,0</t>
+          <t>0,37; 4,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,89</t>
+          <t>0,17; 1,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A07-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,37 +661,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 8,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 7,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 9,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 2,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 5,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 5,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0; 1,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,4</t>
+          <t>0; 1,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0; 1,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0; 1,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,1</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0; 0,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>0; 5,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0,0; 11,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>0; 4,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0; 2,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0; 1,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0; 2,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 5,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>0; 0,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0,3; 3,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0; 0,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0; 1,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>0; 0,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>0,17; 1,8</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,76</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,0</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,26</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 4,32</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,47</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,09</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,52</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
